--- a/Opleverset/Extra documenten/Excel sheets/leerdoelenproces.xlsx
+++ b/Opleverset/Extra documenten/Excel sheets/leerdoelenproces.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Desktop\Project-5-6---Floating-Farm\Opleverset\Extra documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Desktop\Project-5-6---Floating-Farm\Opleverset\Extra documenten\Excel sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A7F2E70-6368-4DDF-9EA1-92C5CFBBF456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ECBD9A-35A9-4A1D-AF15-FCF2E8917A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{22501029-C1EF-405D-A741-1A6A9BE757DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>gedaan</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>totaal</t>
   </si>
 </sst>
 </file>
@@ -138,6 +141,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1AA6-482F-90F4-9D6EACC11F96}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -153,6 +161,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1AA6-482F-90F4-9D6EACC11F96}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -268,7 +281,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$18:$D$18</c:f>
+              <c:f>Blad1!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1305,7 +1318,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,17 +1345,25 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <f>SUM(B4:B18)</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f>SUM(C4:C18)</f>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <f>SUM(D4:D18)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>1+A3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1350,17 +1371,17 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" ref="A5:A17" si="0">1+A4</f>
-        <v>3</v>
-      </c>
-      <c r="C5">
+        <f>1+A4</f>
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="A6:A18" si="0">1+A5</f>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1369,52 +1390,52 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1423,16 +1444,16 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1440,8 +1461,8 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>1+A14</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1449,34 +1470,29 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
+        <f>1+A15</f>
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <f>SUM(B3:B17)</f>
-        <v>4</v>
-      </c>
       <c r="C18">
-        <f t="shared" ref="C18:D18" si="1">SUM(C3:C17)</f>
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Opleverset/Extra documenten/Excel sheets/leerdoelenproces.xlsx
+++ b/Opleverset/Extra documenten/Excel sheets/leerdoelenproces.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyril\Desktop\Project-5-6---Floating-Farm\Opleverset\Extra documenten\Excel sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrtha\Documents\GitHub\Project-5-6---Floating-Farm\Opleverset\Extra documenten\Excel sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ECBD9A-35A9-4A1D-AF15-FCF2E8917A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C548B6-DAB2-4A68-98D9-8AA33DB4F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{22501029-C1EF-405D-A741-1A6A9BE757DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{22501029-C1EF-405D-A741-1A6A9BE757DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>gedaan</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>totaal</t>
+  </si>
+  <si>
+    <t>afgerond</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>niet begonnen</t>
   </si>
 </sst>
 </file>
@@ -90,7 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -108,7 +117,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -398,7 +407,568 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-DAD8-4152-96DE-4D310268042C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-DAD8-4152-96DE-4D310268042C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DAD8-4152-96DE-4D310268042C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$B$22:$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>afgerond</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>in progress</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>niet begonnen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAD8-4152-96DE-4D310268042C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$B$25:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>niet begonnen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>in progress</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>afgerond</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2726-455D-BA9D-2C223F8EAD3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -957,6 +1527,1044 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -995,11 +2603,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942EECE2-B6B6-C679-95AD-64FE6F08BA6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8B0F78-4726-C5BD-63B8-0C01A29814A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1315,25 +2995,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4080CF-E1D4-4D76-8583-EF432CDA3B63}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +3041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1369,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>1+A4</f>
         <v>2</v>
@@ -1378,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" ref="A6:A18" si="0">1+A5</f>
         <v>3</v>
@@ -1387,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1396,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1405,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1414,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1423,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1432,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1441,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1450,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1459,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1468,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>1+A15</f>
         <v>13</v>
@@ -1477,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1486,13 +3166,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
